--- a/setting.xlsx
+++ b/setting.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\LeomonRD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SQL_CONVERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83785F2-A246-47A7-8A25-D7D12321AFC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526C313-E98F-4BFC-8168-4212D2060869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1995" windowWidth="28800" windowHeight="11385" xr2:uid="{42592CCB-5306-404F-9B84-7C54951CC501}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42592CCB-5306-404F-9B84-7C54951CC501}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="setting" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -470,18 +470,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,12 +495,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -514,7 +514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\LeomonRD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\LeomonRD\Desktop\GITHUB\SQL_CONVERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83785F2-A246-47A7-8A25-D7D12321AFC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B15A0-6619-49AE-B7B8-A4E0BE0A08C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1995" windowWidth="28800" windowHeight="11385" xr2:uid="{42592CCB-5306-404F-9B84-7C54951CC501}"/>
+    <workbookView xWindow="9600" yWindow="1980" windowWidth="28800" windowHeight="11385" xr2:uid="{42592CCB-5306-404F-9B84-7C54951CC501}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -91,15 +91,16 @@
     <t>SELECT * FROM SUB01_0000</t>
   </si>
   <si>
-    <t>SELECT * FROM SUT01_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM SUT01_0100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM SUB02_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM SUT01_0000
+where pur_status='00'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,15 +471,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,10 +512,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -525,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -539,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\LeomonRD\Desktop\GITHUB\SQL_CONVERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B15A0-6619-49AE-B7B8-A4E0BE0A08C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9608955C-C066-4757-9E4D-8C55DFD17686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1980" windowWidth="28800" windowHeight="11385" xr2:uid="{42592CCB-5306-404F-9B84-7C54951CC501}"/>
+    <workbookView xWindow="6900" yWindow="2130" windowWidth="28800" windowHeight="11385" xr2:uid="{42592CCB-5306-404F-9B84-7C54951CC501}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="setting" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>採購人員</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>對應表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SUB02_0000</t>
   </si>
   <si>
@@ -68,14 +60,6 @@
     <t>SUB01_0000</t>
   </si>
   <si>
-    <t>初始條件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需寫入內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TRUNCATE TABLE SUB02_0000</t>
   </si>
   <si>
@@ -89,10 +73,6 @@
   </si>
   <si>
     <t>SELECT * FROM SUB01_0000</t>
-  </si>
-  <si>
-    <t>SELECT * FROM SUT01_0100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM SUB02_0000</t>
@@ -101,6 +81,25 @@
   <si>
     <t>SELECT * FROM SUT01_0000
 where pur_status='00'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM SUT01_0100 WHERE (pur_code in (SELECT pur_code FROM SUT01_0000 WHERE pur_status ='00'))</t>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對應表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要匯入的資料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,90 +470,90 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
